--- a/ExperimentalData.xlsx
+++ b/ExperimentalData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Documents\cs170\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD73F2F-5A95-49FD-89B0-0790308F49D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7A421-A5C2-43CC-A631-173345A8EBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E63FDFC-2A19-4150-9F40-25391B7663C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9E63FDFC-2A19-4150-9F40-25391B7663C4}"/>
   </bookViews>
   <sheets>
     <sheet name="CheckRepeated" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
   <si>
     <t>Uniform Cost Search</t>
   </si>
@@ -58,14 +58,24 @@
   <si>
     <t>Max Queue Size</t>
   </si>
+  <si>
+    <t>Runtime (ms)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -92,12 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +640,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CheckRepeated!$H$1:$H$2</c15:sqref>
@@ -671,7 +684,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CheckRepeated!$G$3:$G$10</c15:sqref>
@@ -686,7 +699,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CheckRepeated!$H$3:$H$10</c15:sqref>
@@ -700,7 +713,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-AF6D-44A7-AD95-83C254E0F024}"/>
                   </c:ext>
@@ -1526,7 +1539,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CheckRepeated!$S$1:$S$2</c15:sqref>
@@ -1570,7 +1583,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CheckRepeated!$R$3:$R$10</c15:sqref>
@@ -1585,7 +1598,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CheckRepeated!$S$3:$S$10</c15:sqref>
@@ -1599,7 +1612,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-E39E-4CC4-9579-455A7EA34418}"/>
                   </c:ext>
@@ -1795,6 +1808,865 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime vs Solution Depth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CheckRepeatedTimes!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Cost Search</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Runtime (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CheckRepeatedTimes!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CheckRepeatedTimes!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9880-4375-8354-478B4183B347}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CheckRepeatedTimes!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* MisplacedTiles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CheckRepeatedTimes!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CheckRepeatedTimes!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9880-4375-8354-478B4183B347}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CheckRepeatedTimes!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>A* Manhattan Distance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Runtime (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CheckRepeatedTimes!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CheckRepeatedTimes!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9880-4375-8354-478B4183B347}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="483137775"/>
+        <c:axId val="483135279"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeatedTimes!$D$1:$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>A* MisplacedTiles</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Solution Depth</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeatedTimes!$C$3:$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeatedTimes!$D$3:$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-9880-4375-8354-478B4183B347}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="483137775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Solution Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483135279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="483135279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483137775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1875,6 +2747,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2392,6 +3304,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2976,6 +4404,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2381E0AC-C4EE-FF5F-5738-BC1EC6D2B1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3281,10 +4750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0B85A5-1142-4285-BDB8-2F9C69649304}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,27 +4777,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="1"/>
-      <c r="R1" s="2"/>
       <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3674,6 +5138,44 @@
       </c>
       <c r="U10">
         <v>2117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>181440</v>
+      </c>
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>128785</v>
+      </c>
+      <c r="I11">
+        <v>31</v>
+      </c>
+      <c r="J11">
+        <v>13578</v>
+      </c>
+      <c r="L11">
+        <v>31</v>
+      </c>
+      <c r="M11">
+        <v>61752</v>
+      </c>
+      <c r="P11">
+        <v>31</v>
+      </c>
+      <c r="Q11">
+        <v>65868</v>
+      </c>
+      <c r="T11">
+        <v>31</v>
+      </c>
+      <c r="U11">
+        <v>13905</v>
       </c>
     </row>
   </sheetData>
@@ -3695,13 +5197,267 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D7FF1-9DD4-4095-A481-518C90EE802E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>424</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1518</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3">
+        <v>226</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2502</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1679</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ExperimentalData.xlsx
+++ b/ExperimentalData.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Documents\cs170\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7A421-A5C2-43CC-A631-173345A8EBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95180789-E307-45F7-A980-15BA6EA3C267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9E63FDFC-2A19-4150-9F40-25391B7663C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E63FDFC-2A19-4150-9F40-25391B7663C4}"/>
   </bookViews>
   <sheets>
     <sheet name="CheckRepeated" sheetId="1" r:id="rId1"/>
     <sheet name="CheckRepeatedTimes" sheetId="3" r:id="rId2"/>
-    <sheet name="NoCheck" sheetId="2" r:id="rId3"/>
-    <sheet name="NoCheckTimes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,13 +102,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +748,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
                   <a:t>Solution Depth</a:t>
                 </a:r>
               </a:p>
@@ -867,11 +865,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>Nodes</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
                   <a:t> Expanded</a:t>
                 </a:r>
               </a:p>
@@ -955,37 +953,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1020,6 +987,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1629,6 +1597,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Solution Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1691,6 +1714,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Max Queue Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1740,37 +1818,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1805,6 +1852,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2396,7 +2444,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>Solution Depth</a:t>
                 </a:r>
               </a:p>
@@ -2515,7 +2563,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>Runtime (ms)</a:t>
                 </a:r>
               </a:p>
@@ -2599,37 +2647,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2664,6 +2681,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4413,6 +4431,520 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.797</cdr:x>
+      <cdr:y>0.12029</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93897</cdr:x>
+      <cdr:y>0.196</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45406269-7010-4266-9B6C-8CF260CA2011}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8230394" y="745332"/>
+          <a:ext cx="1466055" cy="469107"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Uniform Cost Search</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79231</cdr:x>
+      <cdr:y>0.71407</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96203</cdr:x>
+      <cdr:y>0.77709</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41431A4E-59CC-9A65-A2CD-331953CD8313}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8181975" y="4424364"/>
+          <a:ext cx="1752600" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Misplaced Tiles</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7877</cdr:x>
+      <cdr:y>0.83551</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94266</cdr:x>
+      <cdr:y>0.88317</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBEA0C8-402A-CBC8-395D-9C9077298B52}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8134350" y="5176839"/>
+          <a:ext cx="1600200" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A* Manhattan Distance</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78183</cdr:x>
+      <cdr:y>0.10521</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92402</cdr:x>
+      <cdr:y>0.16089</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF80B0A-93E1-FA6D-021A-6E50F66BAEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8061325" y="650876"/>
+          <a:ext cx="1466055" cy="344490"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Uniform Cost Search</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78922</cdr:x>
+      <cdr:y>0.60405</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9592</cdr:x>
+      <cdr:y>0.66718</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6255CC08-DB34-AC79-0C44-1CC99752A67B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8137525" y="3736975"/>
+          <a:ext cx="1752600" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Misplaced Tiles</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79015</cdr:x>
+      <cdr:y>0.83038</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94534</cdr:x>
+      <cdr:y>0.87811</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B57DB4-CF26-F300-4CD8-C888C454725E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8147050" y="5137150"/>
+          <a:ext cx="1600200" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A* Manhattan Distance</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4451,6 +4983,357 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81195</cdr:x>
+      <cdr:y>0.81248</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97466</cdr:x>
+      <cdr:y>0.86252</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B57DB4-CF26-F300-4CD8-C888C454725E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7985125" y="4794250"/>
+          <a:ext cx="1600200" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A* Manhattan Distance</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81872</cdr:x>
+      <cdr:y>0.39118</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99693</cdr:x>
+      <cdr:y>0.45736</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0F9285-62C6-559C-5EA4-97E95709ABB8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8051800" y="2308225"/>
+          <a:ext cx="1752600" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Misplaced Tiles</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81098</cdr:x>
+      <cdr:y>0.17003</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96005</cdr:x>
+      <cdr:y>0.24953</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63CAF618-1D87-6553-F01D-8D09132268C7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7975600" y="1003300"/>
+          <a:ext cx="1466055" cy="469107"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Uniform Cost Search</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4752,8 +5635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0B85A5-1142-4285-BDB8-2F9C69649304}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:J11"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4773,30 +5656,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="M1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="Q1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="1"/>
+      <c r="U1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5199,8 +6082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D7FF1-9DD4-4095-A481-518C90EE802E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,238 +6097,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>12</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>120</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
         <v>16</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>16</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>20</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>424</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>59</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>20</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>24</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>1518</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
         <v>24</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>226</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>24</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>31</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>2502</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
         <v>31</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>1679</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
         <v>31</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>119</v>
       </c>
     </row>
@@ -5459,28 +6342,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17B38DA-D486-4BED-8263-FD58535130F9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C6CC40-D342-40B2-A84E-FE1A5682F2EC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ExperimentalData.xlsx
+++ b/ExperimentalData.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Documents\cs170\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95180789-E307-45F7-A980-15BA6EA3C267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E55B1D0-0563-40C9-B61E-BE90D937E34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E63FDFC-2A19-4150-9F40-25391B7663C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9E63FDFC-2A19-4150-9F40-25391B7663C4}"/>
   </bookViews>
   <sheets>
     <sheet name="CheckRepeated" sheetId="1" r:id="rId1"/>
     <sheet name="CheckRepeatedTimes" sheetId="3" r:id="rId2"/>
+    <sheet name="NewData" sheetId="4" r:id="rId3"/>
+    <sheet name="NewTimes" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="7">
   <si>
     <t>Uniform Cost Search</t>
   </si>
@@ -2276,7 +2278,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>119</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2685,6 +2687,2559 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nodes Expanded vs Solution Depth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewData!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Cost Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewData!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewData!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14570</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1488-4FA3-81C5-FB5367048BC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewData!$E$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* MisplacedTiles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewData!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewData!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2772</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1488-4FA3-81C5-FB5367048BC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewData!$I$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* Manhattan Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewData!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewData!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1488-4FA3-81C5-FB5367048BC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="786116928"/>
+        <c:axId val="786108192"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$D$1:$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Uniform Cost Search</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Nodes Expanded</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$C$3:$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$D$3:$D$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-1488-4FA3-81C5-FB5367048BC1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$H$1:$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>A* MisplacedTiles</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Nodes Expanded</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$G$3:$G$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$H$3:$H$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-1488-4FA3-81C5-FB5367048BC1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="786116928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t>Solution Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786108192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="786108192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Nodes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> Expanded</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786116928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Maximum</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Queue Size vs Solution Depth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewData!$L$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Cost Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewData!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewData!$M$3:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F037-4B7A-8690-698AD456898E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewData!$P$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* MisplacedTiles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewData!$P$3:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewData!$Q$3:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F037-4B7A-8690-698AD456898E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewData!$T$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* Manhattan Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewData!$T$3:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewData!$U$3:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F037-4B7A-8690-698AD456898E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="786106944"/>
+        <c:axId val="786110272"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$O$1:$O$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Uniform Cost Search</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Max Queue Size</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$N$3:$N$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$O$3:$O$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-F037-4B7A-8690-698AD456898E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$S$1:$S$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>A* MisplacedTiles</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Max Queue Size</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$R$3:$R$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeated!$S$3:$S$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-F037-4B7A-8690-698AD456898E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="786106944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Solution Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786110272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="786110272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Max Queue Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786106944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime vs Solution Depth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewTimes!$A$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Cost Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewTimes!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewTimes!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92B2-4B04-9AE8-47C0FEB72F1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewTimes!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* MisplacedTiles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewTimes!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewTimes!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92B2-4B04-9AE8-47C0FEB72F1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewTimes!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* Manhattan Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NewTimes!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NewTimes!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92B2-4B04-9AE8-47C0FEB72F1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="483137775"/>
+        <c:axId val="483135279"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeatedTimes!$D$1:$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>A* MisplacedTiles</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Solution Depth</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeatedTimes!$C$3:$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CheckRepeatedTimes!$D$3:$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>31</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-92B2-4B04-9AE8-47C0FEB72F1D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="483137775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Solution Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483135279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="483135279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Runtime (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483137775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2805,6 +5360,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3838,6 +6513,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4428,6 +8651,357 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81195</cdr:x>
+      <cdr:y>0.81248</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97466</cdr:x>
+      <cdr:y>0.86252</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B57DB4-CF26-F300-4CD8-C888C454725E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7985125" y="4794250"/>
+          <a:ext cx="1600200" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A* Manhattan Distance</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81872</cdr:x>
+      <cdr:y>0.39118</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99693</cdr:x>
+      <cdr:y>0.45736</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0F9285-62C6-559C-5EA4-97E95709ABB8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8051800" y="2308225"/>
+          <a:ext cx="1752600" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Misplaced Tiles</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81098</cdr:x>
+      <cdr:y>0.17003</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96005</cdr:x>
+      <cdr:y>0.24953</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63CAF618-1D87-6553-F01D-8D09132268C7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7975600" y="1003300"/>
+          <a:ext cx="1466055" cy="469107"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Uniform Cost Search</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5336,6 +9910,644 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>58740</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9493C10A-158F-449B-9F72-D41F6F292BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F071B00-0320-4AAD-9768-BAE40CDE4F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.797</cdr:x>
+      <cdr:y>0.12029</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93897</cdr:x>
+      <cdr:y>0.196</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45406269-7010-4266-9B6C-8CF260CA2011}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8230394" y="745332"/>
+          <a:ext cx="1466055" cy="469107"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Uniform Cost Search</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79231</cdr:x>
+      <cdr:y>0.71407</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96203</cdr:x>
+      <cdr:y>0.77709</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41431A4E-59CC-9A65-A2CD-331953CD8313}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8181975" y="4424364"/>
+          <a:ext cx="1752600" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Misplaced Tiles</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7877</cdr:x>
+      <cdr:y>0.83551</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94266</cdr:x>
+      <cdr:y>0.88317</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBEA0C8-402A-CBC8-395D-9C9077298B52}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8134350" y="5176839"/>
+          <a:ext cx="1600200" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A* Manhattan Distance</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78183</cdr:x>
+      <cdr:y>0.10521</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92402</cdr:x>
+      <cdr:y>0.16089</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF80B0A-93E1-FA6D-021A-6E50F66BAEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8061325" y="650876"/>
+          <a:ext cx="1466055" cy="344490"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Uniform Cost Search</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78922</cdr:x>
+      <cdr:y>0.60405</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9592</cdr:x>
+      <cdr:y>0.66718</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6255CC08-DB34-AC79-0C44-1CC99752A67B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8137525" y="3736975"/>
+          <a:ext cx="1752600" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Misplaced Tiles</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79015</cdr:x>
+      <cdr:y>0.83038</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94534</cdr:x>
+      <cdr:y>0.87811</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B57DB4-CF26-F300-4CD8-C888C454725E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8147050" y="5137150"/>
+          <a:ext cx="1600200" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A* Manhattan Distance</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50D29CF-F5DF-4EC8-BFAC-C55CAA59B1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5635,8 +10847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0B85A5-1142-4285-BDB8-2F9C69649304}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6082,8 +11294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D7FF1-9DD4-4095-A481-518C90EE802E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6329,7 +11541,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="1">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -6342,4 +11554,713 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C142740-7039-4452-9FA1-0525272298EC}">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>37</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>233</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>253</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>33</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1904</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>96</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>37</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>2018</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>113</v>
+      </c>
+      <c r="T7">
+        <v>12</v>
+      </c>
+      <c r="U7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>14570</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>627</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>91</v>
+      </c>
+      <c r="L8">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <v>13429</v>
+      </c>
+      <c r="P8">
+        <v>16</v>
+      </c>
+      <c r="Q8">
+        <v>648</v>
+      </c>
+      <c r="T8">
+        <v>16</v>
+      </c>
+      <c r="U8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>42262</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>2772</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>236</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>35026</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="Q9">
+        <v>2892</v>
+      </c>
+      <c r="T9">
+        <v>20</v>
+      </c>
+      <c r="U9">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>126795</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>14168</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>1391</v>
+      </c>
+      <c r="L10">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>63230</v>
+      </c>
+      <c r="P10">
+        <v>24</v>
+      </c>
+      <c r="Q10">
+        <v>13328</v>
+      </c>
+      <c r="T10">
+        <v>24</v>
+      </c>
+      <c r="U10">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>181440</v>
+      </c>
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>122308</v>
+      </c>
+      <c r="I11">
+        <v>31</v>
+      </c>
+      <c r="J11">
+        <v>11877</v>
+      </c>
+      <c r="L11">
+        <v>31</v>
+      </c>
+      <c r="M11">
+        <v>61752</v>
+      </c>
+      <c r="P11">
+        <v>31</v>
+      </c>
+      <c r="Q11">
+        <v>66653</v>
+      </c>
+      <c r="T11">
+        <v>31</v>
+      </c>
+      <c r="U11">
+        <v>12448</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="T1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6395ADF-6F13-4283-83B7-8F134688D095}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>120</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>424</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1518</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
+        <v>123</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2502</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1531</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ExperimentalData.xlsx
+++ b/ExperimentalData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick\Documents\cs170\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E55B1D0-0563-40C9-B61E-BE90D937E34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D869C48-0B97-420E-AE58-460ACFC5CA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9E63FDFC-2A19-4150-9F40-25391B7663C4}"/>
+    <workbookView xWindow="-30828" yWindow="-6240" windowWidth="30936" windowHeight="18696" activeTab="3" xr2:uid="{9E63FDFC-2A19-4150-9F40-25391B7663C4}"/>
   </bookViews>
   <sheets>
     <sheet name="CheckRepeated" sheetId="1" r:id="rId1"/>
@@ -2846,22 +2846,22 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1904</c:v>
+                  <c:v>2239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14570</c:v>
+                  <c:v>14190</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42262</c:v>
+                  <c:v>41909</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126795</c:v>
+                  <c:v>134336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,16 +2963,16 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>627</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2772</c:v>
+                  <c:v>3146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14168</c:v>
+                  <c:v>17769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,13 +3077,13 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>236</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1391</c:v>
+                  <c:v>1758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,6 +3389,7 @@
         <c:axId val="786108192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="140000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3712,25 +3713,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>253</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2018</c:v>
+                  <c:v>1268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13429</c:v>
+                  <c:v>6739</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35026</c:v>
+                  <c:v>17612</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63230</c:v>
+                  <c:v>24203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,25 +3824,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>648</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2892</c:v>
+                  <c:v>1831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13328</c:v>
+                  <c:v>8717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3934,25 +3935,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>257</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1455</c:v>
+                  <c:v>967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4588,16 +4589,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>424</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1518</c:v>
+                  <c:v>1143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2502</c:v>
+                  <c:v>1540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4708,13 +4709,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>123</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1531</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4825,13 +4826,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5079,7 +5080,6 @@
         <c:axId val="483135279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8657,12 +8657,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.81195</cdr:x>
-      <cdr:y>0.81248</cdr:y>
+      <cdr:x>0.80653</cdr:x>
+      <cdr:y>0.77245</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.97466</cdr:x>
-      <cdr:y>0.86252</cdr:y>
+      <cdr:x>0.96924</cdr:x>
+      <cdr:y>0.82249</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8677,8 +8677,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7985125" y="4794250"/>
-          <a:ext cx="1600200" cy="295275"/>
+          <a:off x="7930287" y="4558012"/>
+          <a:ext cx="1599871" cy="295273"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8766,12 +8766,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.81872</cdr:x>
-      <cdr:y>0.39118</cdr:y>
+      <cdr:x>0.8071</cdr:x>
+      <cdr:y>0.2982</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99693</cdr:x>
-      <cdr:y>0.45736</cdr:y>
+      <cdr:x>0.98531</cdr:x>
+      <cdr:y>0.36438</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8786,8 +8786,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8051800" y="2308225"/>
-          <a:ext cx="1752600" cy="390525"/>
+          <a:off x="7935894" y="1759611"/>
+          <a:ext cx="1752278" cy="390511"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8862,7 +8862,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
@@ -8872,7 +8872,7 @@
             <a:t>A*</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
@@ -8881,7 +8881,7 @@
             </a:rPr>
             <a:t> Misplaced Tiles</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="bg2">
                 <a:lumMod val="50000"/>
@@ -8894,12 +8894,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.81098</cdr:x>
-      <cdr:y>0.17003</cdr:y>
+      <cdr:x>0.77688</cdr:x>
+      <cdr:y>0.15453</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.96005</cdr:x>
-      <cdr:y>0.24953</cdr:y>
+      <cdr:x>0.92595</cdr:x>
+      <cdr:y>0.23403</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8914,8 +8914,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7975600" y="1003300"/>
-          <a:ext cx="1466055" cy="469107"/>
+          <a:off x="7638809" y="911862"/>
+          <a:ext cx="1465754" cy="469109"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8990,7 +8990,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -9995,12 +9995,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.797</cdr:x>
-      <cdr:y>0.12029</cdr:y>
+      <cdr:x>0.7911</cdr:x>
+      <cdr:y>0.11414</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.93897</cdr:x>
-      <cdr:y>0.196</cdr:y>
+      <cdr:x>0.93307</cdr:x>
+      <cdr:y>0.18985</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -10015,8 +10015,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8230394" y="745332"/>
-          <a:ext cx="1466055" cy="469107"/>
+          <a:off x="8169412" y="707448"/>
+          <a:ext cx="1466080" cy="469244"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -10027,7 +10027,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -10040,12 +10040,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.79231</cdr:x>
-      <cdr:y>0.71407</cdr:y>
+      <cdr:x>0.71188</cdr:x>
+      <cdr:y>0.76694</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.96203</cdr:x>
-      <cdr:y>0.77709</cdr:y>
+      <cdr:x>0.8816</cdr:x>
+      <cdr:y>0.82996</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -10060,8 +10060,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8181975" y="4424364"/>
-          <a:ext cx="1752600" cy="390525"/>
+          <a:off x="7351360" y="4753408"/>
+          <a:ext cx="1752646" cy="390593"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -10072,7 +10072,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
@@ -10082,7 +10082,7 @@
             <a:t>A*</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
@@ -10091,7 +10091,7 @@
             </a:rPr>
             <a:t> Misplaced Tiles</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="bg2">
                 <a:lumMod val="50000"/>
@@ -10156,12 +10156,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.78183</cdr:x>
-      <cdr:y>0.10521</cdr:y>
+      <cdr:x>0.72346</cdr:x>
+      <cdr:y>0.18522</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.92402</cdr:x>
-      <cdr:y>0.16089</cdr:y>
+      <cdr:x>0.86565</cdr:x>
+      <cdr:y>0.2409</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -10176,8 +10176,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8061325" y="650876"/>
-          <a:ext cx="1466055" cy="344490"/>
+          <a:off x="7460813" y="1146581"/>
+          <a:ext cx="1466366" cy="344676"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -10252,7 +10252,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -10265,12 +10265,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.78922</cdr:x>
-      <cdr:y>0.60405</cdr:y>
+      <cdr:x>0.75449</cdr:x>
+      <cdr:y>0.6139</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.9592</cdr:x>
-      <cdr:y>0.66718</cdr:y>
+      <cdr:x>0.92447</cdr:x>
+      <cdr:y>0.67703</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -10285,8 +10285,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8137525" y="3736975"/>
-          <a:ext cx="1752600" cy="390525"/>
+          <a:off x="7780864" y="3800210"/>
+          <a:ext cx="1752956" cy="390794"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -10361,7 +10361,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1200">
+            <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
@@ -10371,7 +10371,7 @@
             <a:t>A*</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0">
+            <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg2">
                   <a:lumMod val="50000"/>
@@ -10380,7 +10380,7 @@
             </a:rPr>
             <a:t> Misplaced Tiles</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="bg2">
                 <a:lumMod val="50000"/>
@@ -11560,8 +11560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C142740-7039-4452-9FA1-0525272298EC}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11705,19 +11705,19 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -11725,7 +11725,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -11743,19 +11743,19 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="P5">
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>4</v>
       </c>
       <c r="U5">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -11763,7 +11763,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -11781,19 +11781,19 @@
         <v>8</v>
       </c>
       <c r="M6">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="P6">
         <v>8</v>
       </c>
       <c r="Q6">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="T6">
         <v>8</v>
       </c>
       <c r="U6">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -11801,13 +11801,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1904</v>
+        <v>2239</v>
       </c>
       <c r="E7">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -11819,19 +11819,19 @@
         <v>12</v>
       </c>
       <c r="M7">
-        <v>2018</v>
+        <v>1268</v>
       </c>
       <c r="P7">
         <v>12</v>
       </c>
       <c r="Q7">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="T7">
         <v>12</v>
       </c>
       <c r="U7">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -11839,37 +11839,37 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>14570</v>
+        <v>14190</v>
       </c>
       <c r="E8">
         <v>16</v>
       </c>
       <c r="F8">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="I8">
         <v>16</v>
       </c>
       <c r="J8">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L8">
         <v>16</v>
       </c>
       <c r="M8">
-        <v>13429</v>
+        <v>6739</v>
       </c>
       <c r="P8">
         <v>16</v>
       </c>
       <c r="Q8">
-        <v>648</v>
+        <v>414</v>
       </c>
       <c r="T8">
         <v>16</v>
       </c>
       <c r="U8">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -11877,37 +11877,37 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>42262</v>
+        <v>41909</v>
       </c>
       <c r="E9">
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2772</v>
+        <v>3146</v>
       </c>
       <c r="I9">
         <v>20</v>
       </c>
       <c r="J9">
-        <v>236</v>
+        <v>503</v>
       </c>
       <c r="L9">
         <v>20</v>
       </c>
       <c r="M9">
-        <v>35026</v>
+        <v>17612</v>
       </c>
       <c r="P9">
         <v>20</v>
       </c>
       <c r="Q9">
-        <v>2892</v>
+        <v>1831</v>
       </c>
       <c r="T9">
         <v>20</v>
       </c>
       <c r="U9">
-        <v>257</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -11915,37 +11915,37 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>126795</v>
+        <v>134336</v>
       </c>
       <c r="E10">
         <v>24</v>
       </c>
       <c r="F10">
-        <v>14168</v>
+        <v>17769</v>
       </c>
       <c r="I10">
         <v>24</v>
       </c>
       <c r="J10">
-        <v>1391</v>
+        <v>1758</v>
       </c>
       <c r="L10">
         <v>24</v>
       </c>
       <c r="M10">
-        <v>63230</v>
+        <v>24203</v>
       </c>
       <c r="P10">
         <v>24</v>
       </c>
       <c r="Q10">
-        <v>13328</v>
+        <v>8717</v>
       </c>
       <c r="T10">
         <v>24</v>
       </c>
       <c r="U10">
-        <v>1455</v>
+        <v>967</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -11953,47 +11953,47 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>181440</v>
+        <v>181439</v>
       </c>
       <c r="E11">
         <v>31</v>
       </c>
       <c r="F11">
-        <v>122308</v>
+        <v>143849</v>
       </c>
       <c r="I11">
         <v>31</v>
       </c>
       <c r="J11">
-        <v>11877</v>
+        <v>21198</v>
       </c>
       <c r="L11">
         <v>31</v>
       </c>
       <c r="M11">
-        <v>61752</v>
+        <v>25135</v>
       </c>
       <c r="P11">
         <v>31</v>
       </c>
       <c r="Q11">
-        <v>66653</v>
+        <v>25071</v>
       </c>
       <c r="T11">
         <v>31</v>
       </c>
       <c r="U11">
-        <v>12448</v>
+        <v>8862</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12004,8 +12004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6395ADF-6F13-4283-83B7-8F134688D095}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12171,7 +12171,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -12193,21 +12193,21 @@
         <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>424</v>
+        <v>338</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <v>20</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12215,21 +12215,21 @@
         <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>1518</v>
+        <v>1143</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>24</v>
       </c>
       <c r="E10" s="1">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <v>24</v>
       </c>
       <c r="H10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12237,21 +12237,21 @@
         <v>31</v>
       </c>
       <c r="B11" s="1">
-        <v>2502</v>
+        <v>1540</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>31</v>
       </c>
       <c r="E11" s="1">
-        <v>1531</v>
+        <v>1230</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>31</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
